--- a/tests/fixtures/store/api/applications.xlsx
+++ b/tests/fixtures/store/api/applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/store/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1031BAA-292E-AB4F-A30F-C06F8BA1EE02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40795AD1-C1C8-524B-B53E-689195BAC281}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1600" yWindow="460" windowWidth="49600" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -612,7 +612,7 @@
   <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="B25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -680,7 +680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -727,7 +727,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -781,7 +781,7 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -828,7 +828,7 @@
         <v>43238</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -875,7 +875,7 @@
         <v>43239</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -922,7 +922,7 @@
         <v>43240</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
@@ -1143,7 +1143,7 @@
       <c r="R18" s="1"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
@@ -1167,7 +1167,7 @@
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="11"/>
       <c r="C20" s="7"/>
@@ -1191,7 +1191,7 @@
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="11"/>
       <c r="C21" s="7"/>
@@ -1239,7 +1239,7 @@
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="11"/>
       <c r="C23" s="7"/>

--- a/tests/fixtures/store/api/applications.xlsx
+++ b/tests/fixtures/store/api/applications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/store/api/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maya.brandi/opt/cg/tests/fixtures/store/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40795AD1-C1C8-524B-B53E-689195BAC281}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58687D9E-F317-CA44-BC70-8D146240FD68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="460" windowWidth="49600" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="application" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>tag</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Inome, 80 M read pairs, PE 2x150, FF and FFPE incompatible, estimated to 150x coverage for FF. PG technology using PG core inome baitset. 50 ng input</t>
+  </si>
+  <si>
+    <t>percent_reads_guaranteed</t>
   </si>
 </sst>
 </file>
@@ -611,8 +614,8 @@
   </sheetPr>
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -679,6 +682,9 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -725,6 +731,9 @@
       </c>
       <c r="S2" s="4">
         <v>43236</v>
+      </c>
+      <c r="T2" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.2">
@@ -777,7 +786,9 @@
       <c r="S3" s="4">
         <v>43237</v>
       </c>
-      <c r="T3" s="8"/>
+      <c r="T3" s="8">
+        <v>65</v>
+      </c>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
     </row>
@@ -827,6 +838,9 @@
       <c r="S4" s="4">
         <v>43238</v>
       </c>
+      <c r="T4" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -874,6 +888,9 @@
       <c r="S5" s="4">
         <v>43239</v>
       </c>
+      <c r="T5" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="6" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -920,6 +937,9 @@
       </c>
       <c r="S6" s="4">
         <v>43240</v>
+      </c>
+      <c r="T6" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="16" x14ac:dyDescent="0.2">
